--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProject\LandlordsCore\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71E95A-C73C-4D73-B60C-3B3CACB1B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD3DDC5-48F3-4FCD-8A7B-B8284DD2A976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -78,15 +78,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
-  </si>
-  <si>
     <t>Robot</t>
   </si>
   <si>
@@ -114,6 +105,42 @@
   </si>
   <si>
     <t>RouterManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Realm1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,19 +535,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -581,44 +611,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5">
         <v>10002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10003</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -635,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5">
-        <v>10004</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -652,12 +679,14 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10004</v>
+      </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
@@ -670,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -687,13 +716,65 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -710,13 +791,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -780,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -791,10 +872,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -809,17 +890,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD4B0A-9154-4971-9279-5508340B28DA}">
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -883,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>300</v>
       </c>
@@ -894,16 +975,16 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5">
         <v>10300</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>301</v>
       </c>
@@ -914,16 +995,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="5">
         <v>10301</v>
       </c>
     </row>
-    <row r="8" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>302</v>
       </c>
@@ -934,16 +1015,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5">
         <v>10302</v>
       </c>
     </row>
-    <row r="9" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>303</v>
       </c>
@@ -954,16 +1035,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="5">
         <v>10303</v>
       </c>
     </row>
-    <row r="10" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>304</v>
       </c>
@@ -974,10 +1055,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="5">
         <v>10304</v>
